--- a/app/templates/report/operaciones.nextout.xlsx
+++ b/app/templates/report/operaciones.nextout.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E1CC5A-3445-4494-A3E8-E48C20BB492C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7500D49-7DC4-4F97-8EC5-3DDA06BD4B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2316" yWindow="1668" windowWidth="17280" windowHeight="8880" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proximas_salidas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Proximas_salidas!$B$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Proximas_salidas!$A$2:$AH$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -689,7 +689,7 @@
     <col min="10" max="11" width="9.109375" style="11" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="25" width="13.109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="19" style="1" customWidth="1"/>
+    <col min="26" max="26" width="50.77734375" style="1" customWidth="1"/>
     <col min="27" max="28" width="10.44140625" style="1" customWidth="1"/>
     <col min="29" max="29" width="64.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15" style="1" bestFit="1" customWidth="1"/>
@@ -903,6 +903,7 @@
       <c r="AH3" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AH2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
